--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_34.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3289210.135373115</v>
+        <v>3286192.544972177</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -659,16 +659,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>120.1855270503911</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>128.9001284632685</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>114.9037140121391</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>81.12990358774286</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>105.0314420927888</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>34.50046002839182</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>141.901108712181</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>187.536714716871</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>40.25883851270402</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>144.5773991465719</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>206.3517689015297</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113172</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>73.21532344290819</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.153727875004</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>92.26446238800023</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>46.18719652447322</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>144.4797853959761</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274046</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,19 +2293,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151917</v>
+        <v>95.21726345495343</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>26.27694844301186</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.59458547084342</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2725,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>104.4356141147672</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>133.9620172021099</v>
       </c>
       <c r="W31" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3187,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>53.9838363788485</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3244,7 +3244,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>169.7438101404428</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>29.30655540895098</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>206.806426921486</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>98.14361023919679</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>57.64843562452423</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>114.4449296640509</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.97280416958371</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>101.3913673420928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>108.0653070189131</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2212.181128500977</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1843.218611560565</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1484.952912953815</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>929.3036598490722</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>511.3398517472591</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>184.1451317832619</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2212.181128500977</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2212.181128500977</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.5489038166068</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="C4" t="n">
-        <v>181.5489038166068</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="D4" t="n">
-        <v>181.5489038166068</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="E4" t="n">
-        <v>181.5489038166068</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="F4" t="n">
-        <v>181.5489038166068</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="G4" t="n">
-        <v>181.5489038166068</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146241</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146241</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146241</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>181.5489038166068</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="Y4" t="n">
-        <v>181.5489038166068</v>
+        <v>351.9927747426011</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>953.9071733620844</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>584.9446564216728</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
         <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2662.300141494594</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2662.300141494594</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2331.237254151024</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1978.468598880909</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X5" t="n">
-        <v>1978.468598880909</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>953.9071733620844</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>555.3776118154288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>555.3776118154288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>405.2609724030931</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>555.3776118154288</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>555.3776118154288</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U7" t="n">
-        <v>555.3776118154288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>555.3776118154288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>555.3776118154288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>555.3776118154288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>555.3776118154288</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1395.51153118508</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C8" t="n">
-        <v>1026.549014244668</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>668.2833156379174</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>668.2833156379174</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>257.2974108483099</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>243.3740067869008</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2480.306109885217</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2480.306109885217</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>2480.306109885217</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>2480.306109885217</v>
       </c>
       <c r="X8" t="n">
-        <v>1782.111371249201</v>
+        <v>2480.306109885217</v>
       </c>
       <c r="Y8" t="n">
-        <v>1782.111371249201</v>
+        <v>2090.166777909405</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.9169416640005</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>199.9807587360936</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9807587360936</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942403</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942403</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942403</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942403</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942403</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942403</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942403</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942403</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5051,7 +5051,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>171.1719636248396</v>
       </c>
       <c r="C13" t="n">
         <v>97.21709146028587</v>
@@ -5200,13 +5200,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>755.1831334811264</v>
+        <v>909.3712637033476</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441658</v>
+        <v>619.9540936663871</v>
       </c>
       <c r="X13" t="n">
-        <v>237.7764125461485</v>
+        <v>391.9645427683697</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>171.1719636248396</v>
       </c>
     </row>
     <row r="14">
@@ -5270,28 +5270,28 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
@@ -5303,7 +5303,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>190.6805289025653</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>842.8697743566707</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>673.9335914287639</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>936.0662010112164</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>936.0662010112164</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>1196.088769018224</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M18" t="n">
-        <v>1503.408902298185</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N18" t="n">
-        <v>1833.271529962218</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
         <v>2612.943493278838</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.900558318119</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C19" t="n">
-        <v>441.900558318119</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>291.7839189057833</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>143.8708253233901</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>143.8708253233901</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>143.8708253233901</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550796</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W19" t="n">
-        <v>441.900558318119</v>
+        <v>354.6908600059909</v>
       </c>
       <c r="X19" t="n">
-        <v>441.900558318119</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.900558318119</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,25 +5738,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5777,22 +5777,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>292.8275092861694</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>539.5926371926334</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>3865.493026375031</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>3865.493026375031</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>3865.493026375031</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>3717.579932792637</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>4340.970093724448</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>4086.285605518561</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>4086.285605518561</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028587</v>
+        <v>4086.285605518561</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>3865.493026375031</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
@@ -5981,58 +5981,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>3079.144181652284</v>
       </c>
       <c r="N24" t="n">
-        <v>1171.725741678162</v>
+        <v>3883.555759916434</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>4553.019521219094</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>3869.021087329177</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>3869.021087329177</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>3869.021087329177</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>4525.994054365623</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>4499.451682200965</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>4499.451682200965</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>4499.451682200965</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>4271.462131302947</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>4050.669552159417</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,13 +6212,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6251,22 +6251,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>148.509676183284</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K27" t="n">
-        <v>559.3999450277967</v>
+        <v>2649.889045452863</v>
       </c>
       <c r="L27" t="n">
-        <v>806.1650729342607</v>
+        <v>3263.786115209751</v>
       </c>
       <c r="M27" t="n">
-        <v>1113.485206214222</v>
+        <v>3571.106248489713</v>
       </c>
       <c r="N27" t="n">
-        <v>1443.347833878255</v>
+        <v>4289.159124556162</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.811595180915</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.072954880832</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>3774.220663094764</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>3627.330715596854</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4755.364053706447</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>4755.364053706447</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>4755.364053706447</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557902</v>
+        <v>4466.235414920005</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>4211.550926714118</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170374</v>
+        <v>3922.133756677158</v>
       </c>
       <c r="Y28" t="n">
-        <v>726.8250614170374</v>
+        <v>3922.133756677158</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,19 +6455,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6476,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>921.5583256030199</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6625,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>963.3973594422661</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>963.3973594422661</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>963.3973594422661</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263799</v>
       </c>
       <c r="K33" t="n">
-        <v>412.6079778147081</v>
+        <v>2786.879505108312</v>
       </c>
       <c r="L33" t="n">
-        <v>1026.505047571597</v>
+        <v>3177.427413012051</v>
       </c>
       <c r="M33" t="n">
-        <v>1333.825180851558</v>
+        <v>3484.747546292012</v>
       </c>
       <c r="N33" t="n">
-        <v>1663.687808515591</v>
+        <v>4289.159124556163</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>4568.69918977486</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.72167055707</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>299.6593126980815</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>299.6593126980815</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>151.7462191156884</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>151.7462191156884</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>151.7462191156884</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>151.7462191156884</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.020508932908</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>3976.562114851653</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W34" t="n">
-        <v>3687.144944814692</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X34" t="n">
-        <v>3459.155393916675</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>468.5954956259884</v>
       </c>
     </row>
     <row r="35">
@@ -6935,10 +6935,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6950,7 +6950,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -7014,22 +7014,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>485.404702608941</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>732.169830515405</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7117,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1469.31368933674</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1269.393679252292</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1269.393679252292</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1269.393679252292</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>1014.709191046405</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>1014.709191046405</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>786.7196401483878</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7175,10 +7175,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7199,25 +7199,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1646.27469227828</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O39" t="n">
-        <v>1925.814757496977</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>266.1532743881928</v>
+        <v>493.3586382081045</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1440.685527502827</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U40" t="n">
-        <v>1440.685527502827</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V40" t="n">
-        <v>1186.00103929694</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W40" t="n">
-        <v>896.5838692599799</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X40" t="n">
-        <v>668.5943183619626</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y40" t="n">
-        <v>447.8017392184324</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7415,7 +7415,7 @@
         <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,19 +7442,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>4270.206469545892</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>4549.746534764589</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R42" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S42" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T42" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U42" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W42" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X42" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y42" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>415.8104215925219</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C43" t="n">
-        <v>415.8104215925219</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D43" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V43" t="n">
-        <v>1209.787631771461</v>
+        <v>783.1915791942415</v>
       </c>
       <c r="W43" t="n">
-        <v>920.3704617344999</v>
+        <v>783.1915791942415</v>
       </c>
       <c r="X43" t="n">
-        <v>692.3809108364826</v>
+        <v>783.1915791942415</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.4588864227617</v>
+        <v>562.3990000507114</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,40 +7631,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>3446.276123502708</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>3776.138751166741</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R45" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S45" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T45" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U45" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W45" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X45" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y45" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4241.487948057122</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C46" t="n">
-        <v>4072.551765129214</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>4072.551765129214</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014292</v>
+        <v>1396.500747990132</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014292</v>
+        <v>1196.580737905684</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014292</v>
+        <v>972.79532269519</v>
       </c>
       <c r="U46" t="n">
-        <v>4860.854573014292</v>
+        <v>683.6666839087482</v>
       </c>
       <c r="V46" t="n">
-        <v>4860.854573014292</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="W46" t="n">
-        <v>4571.437402977332</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="X46" t="n">
-        <v>4462.280527200652</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y46" t="n">
-        <v>4241.487948057122</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.2865794093292</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165108</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>52.49733361305231</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>277.6717966208069</v>
+        <v>94.13752431970596</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,19 +9480,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>5.100663089359699</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>349.7653003338568</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>15.83804904622806</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>9.900512684485392</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>392.1113620226429</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>80.50021372615237</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>145.2351313103783</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>73.64859338270662</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>73.53204524669994</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>199.623080587109</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>134.4977453535108</v>
       </c>
       <c r="P39" t="n">
-        <v>199.623080587109</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,10 +11063,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11148,16 +11148,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>19.14409596996995</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11388,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>199.7396287231149</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>94.03149765571965</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>79.4309254770908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>87.56751779393707</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,10 +23893,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>102.7266318430629</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>81.2298699930611</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,19 +24181,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338568</v>
+        <v>191.0200889436239</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>259.9604039555655</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>164.2373947110939</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>5.52873828902554</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,7 +24655,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>118.1756261217181</v>
       </c>
       <c r="W31" t="n">
-        <v>82.39383318338565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,13 +25075,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25093,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>56.43540908542348</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>82.39383318338517</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,10 +25324,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>80.6577969948418</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,13 +25366,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>79.43092547709136</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>69.10321085943104</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>163.899125433865</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,25 +25783,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>137.6927136597771</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.6118491825111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,28 +26068,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>8.57298506170001</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>117.644348370124</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>718110.1834587392</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="F2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="I2" t="n">
         <v>664749.401554105</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>664749.4015541048</v>
+      </c>
+      <c r="K2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="L2" t="n">
+        <v>664749.4015541051</v>
+      </c>
+      <c r="M2" t="n">
         <v>664749.4015541049</v>
       </c>
-      <c r="H2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="M2" t="n">
-        <v>664749.4015541048</v>
-      </c>
       <c r="N2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="O2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541048</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417554</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.5006543095</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871665</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131301.196635068</v>
+        <v>-131716.4111445356</v>
       </c>
       <c r="C6" t="n">
-        <v>458666.6825794765</v>
+        <v>458251.4680700088</v>
       </c>
       <c r="D6" t="n">
-        <v>458666.6825794764</v>
+        <v>458251.4680700089</v>
       </c>
       <c r="E6" t="n">
-        <v>32890.53847418235</v>
+        <v>32556.36950705263</v>
       </c>
       <c r="F6" t="n">
-        <v>558050.5749510791</v>
+        <v>557716.4059839493</v>
       </c>
       <c r="G6" t="n">
-        <v>558050.5749510787</v>
+        <v>557716.4059839488</v>
       </c>
       <c r="H6" t="n">
-        <v>558050.5749510786</v>
+        <v>557716.405983949</v>
       </c>
       <c r="I6" t="n">
-        <v>558050.5749510785</v>
+        <v>557716.4059839493</v>
       </c>
       <c r="J6" t="n">
-        <v>381627.3557584856</v>
+        <v>381293.1867913562</v>
       </c>
       <c r="K6" t="n">
-        <v>558050.5749510786</v>
+        <v>557716.4059839493</v>
       </c>
       <c r="L6" t="n">
-        <v>558050.5749510787</v>
+        <v>557716.4059839494</v>
       </c>
       <c r="M6" t="n">
-        <v>423249.5597172414</v>
+        <v>422915.390750112</v>
       </c>
       <c r="N6" t="n">
-        <v>558050.5749510787</v>
+        <v>557716.4059839488</v>
       </c>
       <c r="O6" t="n">
-        <v>558050.5749510787</v>
+        <v>557716.4059839492</v>
       </c>
       <c r="P6" t="n">
-        <v>558050.5749510787</v>
+        <v>557716.4059839491</v>
       </c>
     </row>
   </sheetData>
@@ -26735,22 +26735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,16 +27379,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>261.7448430218707</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>33.71175900607328</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>75.04098525405229</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>249.6515995278942</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,25 +27664,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>181.947860329266</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>70.24443023783789</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>136.3860580474862</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>176.1894818449538</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>1.856563499997293</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>18.68333655655462</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31844,19 +31844,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31865,13 +31865,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34784,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145238</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35574,19 +35574,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>94.40751256795899</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>526.9295015768312</v>
+        <v>343.3952292757303</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
@@ -36200,19 +36200,19 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>155.6761016772989</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315247</v>
@@ -36221,7 +36221,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36446,19 +36446,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>632.1290025749649</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>222.9314639777528</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>51.81069163939208</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>725.3059354206558</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>390.9245907766187</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
         <v>59.8253897034981</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>394.4928362664027</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>356.0122956238148</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>224.1074838346392</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>406.7164955186337</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37634,16 +37634,16 @@
         <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>416.8614475946189</v>
       </c>
       <c r="P39" t="n">
-        <v>406.7164955186337</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,10 +37783,10 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37868,16 +37868,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>226.2375109014947</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504663</v>
@@ -38108,13 +38108,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>482.1033309642231</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3286192.544972177</v>
+        <v>3361722.214636983</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -659,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>105.0314420927888</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>128.9001284632685</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>114.9037140121391</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>4.656611629715779</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>105.0314420927888</v>
+        <v>101.0648684641362</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -947,13 +949,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>230.2634979541059</v>
+        <v>59.06146187382455</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>40.25883851270402</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>185.035228191389</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>5.08792385118008</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>206.3517689015297</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113172</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1528,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>73.21532344290819</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>89.6181954234998</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.26446238800023</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1774,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,13 +1824,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>219.5254377378116</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1859,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>94.51502102198388</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>144.4797853959761</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>146.5618470617694</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,19 +2292,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>95.21726345495343</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>71.8573874835286</v>
       </c>
       <c r="U25" t="n">
-        <v>26.27694844301186</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2716,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>104.4356141147672</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.9620172021099</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>29.33759655422691</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>53.9838363788485</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>79.28074486979467</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3319,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>53.21851677552469</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>29.30655540895098</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>9.55515053444328</v>
       </c>
       <c r="C40" t="n">
-        <v>98.14361023919679</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3711,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3791,13 +3793,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701357</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3907,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>114.4449296640509</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>109.0847947020405</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,7 +4143,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>101.3913673420928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4195,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>46.18719652447322</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>953.9071733620844</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>584.9446564216728</v>
       </c>
       <c r="D2" t="n">
-        <v>936.2491605982757</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>936.2491605982757</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>929.3036598490722</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>511.3398517472591</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>184.1451317832619</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1344.046505337896</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>953.9071733620844</v>
       </c>
     </row>
     <row r="3">
@@ -4407,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>351.9927747426011</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9927747426011</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545818</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545818</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X4" t="n">
-        <v>351.9927747426011</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="Y4" t="n">
-        <v>351.9927747426011</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9071733620844</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="C5" t="n">
-        <v>584.9446564216728</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
@@ -4565,7 +4567,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4595,22 +4597,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>1717.512263598976</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X5" t="n">
-        <v>1344.046505337896</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9071733620844</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4665,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>53.94298182036445</v>
+        <v>639.0540227632637</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>639.0540227632637</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>639.0540227632637</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1703.566937845283</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2480.306109885217</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2480.306109885217</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2480.306109885217</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="W8" t="n">
-        <v>2480.306109885217</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="X8" t="n">
-        <v>2480.306109885217</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y8" t="n">
-        <v>2090.166777909405</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4887,13 +4889,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>490.2759348564911</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>490.2759348564911</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>235.5914466506042</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>235.5914466506042</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155881</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,10 +5041,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5051,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5060,31 +5062,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5123,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277035</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.1719636248396</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028587</v>
@@ -5200,13 +5202,13 @@
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119729</v>
+        <v>1408.392840837196</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.055751909234</v>
+        <v>1408.392840837196</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.055751909234</v>
+        <v>1408.392840837196</v>
       </c>
       <c r="V13" t="n">
-        <v>909.3712637033476</v>
+        <v>1153.708352631309</v>
       </c>
       <c r="W13" t="n">
-        <v>619.9540936663871</v>
+        <v>864.2911825943485</v>
       </c>
       <c r="X13" t="n">
-        <v>391.9645427683697</v>
+        <v>636.3016316963311</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.1719636248396</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="14">
@@ -5303,19 +5305,19 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5355,25 +5357,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>190.6805289025653</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>339.7502131046251</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>953.6472828615138</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>842.8697743566707</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="C16" t="n">
-        <v>673.9335914287639</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="D16" t="n">
-        <v>523.8169520164281</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185178</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W16" t="n">
-        <v>1164.055751909234</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X16" t="n">
-        <v>936.0662010112164</v>
+        <v>509.2863307027309</v>
       </c>
       <c r="Y16" t="n">
-        <v>936.0662010112164</v>
+        <v>509.2863307027309</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5537,28 +5539,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>627.7391298106763</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M18" t="n">
-        <v>1396.107276203138</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.969903867171</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O18" t="n">
-        <v>2005.509969085868</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>677.7114078547894</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>508.7752249268825</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>508.7752249268825</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>360.8621313444894</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>360.8621313444894</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>192.68680966431</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>192.68680966431</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5704,19 +5706,19 @@
         <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>898.7925182488384</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>644.1080300429516</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W19" t="n">
-        <v>354.6908600059909</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X19" t="n">
-        <v>208.7516828383384</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7516828383384</v>
+        <v>677.7114078547894</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5738,19 +5740,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5762,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5777,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>292.8275092861694</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>539.5926371926334</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>846.9127704725951</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N21" t="n">
-        <v>1651.324348736746</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.788110039405</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3865.493026375031</v>
+        <v>3923.023794101856</v>
       </c>
       <c r="C22" t="n">
-        <v>3865.493026375031</v>
+        <v>3754.087611173949</v>
       </c>
       <c r="D22" t="n">
-        <v>3865.493026375031</v>
+        <v>3754.087611173949</v>
       </c>
       <c r="E22" t="n">
-        <v>3717.579932792637</v>
+        <v>3754.087611173949</v>
       </c>
       <c r="F22" t="n">
-        <v>3570.689985294727</v>
+        <v>3607.197663676039</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294727</v>
+        <v>3607.197663676039</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
         <v>4411.546387431056</v>
@@ -5938,22 +5940,22 @@
         <v>4660.934562929845</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="U22" t="n">
-        <v>4340.970093724448</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="V22" t="n">
-        <v>4086.285605518561</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="W22" t="n">
-        <v>4086.285605518561</v>
+        <v>4371.805924143403</v>
       </c>
       <c r="X22" t="n">
-        <v>4086.285605518561</v>
+        <v>4143.816373245386</v>
       </c>
       <c r="Y22" t="n">
-        <v>3865.493026375031</v>
+        <v>3923.023794101856</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5971,13 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5987,19 +5989,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2375.989236263798</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>2525.058920465858</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>2771.824048372322</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>3079.144181652284</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N24" t="n">
-        <v>3883.555759916434</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>4553.019521219094</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3869.021087329177</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C25" t="n">
-        <v>3869.021087329177</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D25" t="n">
-        <v>3869.021087329177</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E25" t="n">
-        <v>3721.107993746784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F25" t="n">
-        <v>3721.107993746784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576118</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365623</v>
+        <v>1115.337937354948</v>
       </c>
       <c r="U25" t="n">
-        <v>4499.451682200965</v>
+        <v>826.2092985685065</v>
       </c>
       <c r="V25" t="n">
-        <v>4499.451682200965</v>
+        <v>826.2092985685065</v>
       </c>
       <c r="W25" t="n">
-        <v>4499.451682200965</v>
+        <v>826.2092985685065</v>
       </c>
       <c r="X25" t="n">
-        <v>4271.462131302947</v>
+        <v>598.2197476704891</v>
       </c>
       <c r="Y25" t="n">
-        <v>4050.669552159417</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="26">
@@ -6212,49 +6214,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>2649.889045452863</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>3263.786115209751</v>
+        <v>624.8682044203583</v>
       </c>
       <c r="M27" t="n">
-        <v>3571.106248489713</v>
+        <v>932.1883377003199</v>
       </c>
       <c r="N27" t="n">
-        <v>4289.159124556162</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3922.133756677158</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="C28" t="n">
-        <v>3922.133756677158</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="D28" t="n">
-        <v>3922.133756677158</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>3774.220663094764</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596854</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4755.364053706447</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4755.364053706447</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4755.364053706447</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4466.235414920005</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4211.550926714118</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>3922.133756677158</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X28" t="n">
-        <v>3922.133756677158</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y28" t="n">
-        <v>3922.133756677158</v>
+        <v>241.9805482336712</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6476,37 +6478,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6546,22 +6548,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>921.5583256030199</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1725.969903867171</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>1818.397748747283</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.9563154684962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C31" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V31" t="n">
-        <v>963.3973594422661</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W31" t="n">
-        <v>963.3973594422661</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X31" t="n">
-        <v>963.3973594422661</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.6047802987359</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2375.989236263799</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>2786.879505108312</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>3177.427413012051</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>3484.747546292012</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>4289.159124556163</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>4568.69918977486</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>4773.72167055707</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>468.5954956259884</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C34" t="n">
-        <v>299.6593126980815</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>299.6593126980815</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>151.7462191156884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>151.7462191156884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>151.7462191156884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>151.7462191156884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6862,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6880,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V34" t="n">
-        <v>986.0022165609664</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="W34" t="n">
-        <v>696.5850465240057</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="X34" t="n">
-        <v>468.5954956259884</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y34" t="n">
-        <v>468.5954956259884</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M36" t="n">
-        <v>841.863114014129</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N36" t="n">
-        <v>1646.27469227828</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1925.814757496977</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>565.9270610048577</v>
+        <v>579.3570368996734</v>
       </c>
       <c r="C37" t="n">
-        <v>565.9270610048577</v>
+        <v>410.4208539717665</v>
       </c>
       <c r="D37" t="n">
-        <v>415.8104215925219</v>
+        <v>410.4208539717665</v>
       </c>
       <c r="E37" t="n">
-        <v>415.8104215925219</v>
+        <v>262.5077603893734</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1469.31368933674</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1269.393679252292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1269.393679252292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1269.393679252292</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1014.709191046405</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W37" t="n">
-        <v>1014.709191046405</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X37" t="n">
-        <v>786.7196401483878</v>
+        <v>981.7980808734433</v>
       </c>
       <c r="Y37" t="n">
-        <v>565.9270610048577</v>
+        <v>761.0055017299131</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7175,10 +7177,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7199,25 +7201,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.683698656582</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1908.095276920732</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O39" t="n">
-        <v>2320.788110039405</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>493.3586382081045</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="C40" t="n">
-        <v>394.223678370532</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D40" t="n">
-        <v>244.1070389581962</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E40" t="n">
-        <v>244.1070389581962</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>964.135741824786</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383442</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V40" t="n">
-        <v>675.0071030383442</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W40" t="n">
-        <v>675.0071030383442</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="X40" t="n">
-        <v>675.0071030383442</v>
+        <v>681.3817128053296</v>
       </c>
       <c r="Y40" t="n">
-        <v>675.0071030383442</v>
+        <v>681.3817128053296</v>
       </c>
     </row>
     <row r="41">
@@ -7400,58 +7402,58 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614725</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>3158.47475800178</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>3465.794891281741</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N42" t="n">
-        <v>4270.206469545892</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O42" t="n">
-        <v>4549.746534764589</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P42" t="n">
-        <v>4773.721670557069</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S42" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T42" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U42" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X42" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y42" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.3990000507114</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>562.3990000507114</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7594,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>898.7925182488384</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V43" t="n">
-        <v>783.1915791942415</v>
+        <v>874.927113122792</v>
       </c>
       <c r="W43" t="n">
-        <v>783.1915791942415</v>
+        <v>585.5099430858313</v>
       </c>
       <c r="X43" t="n">
-        <v>783.1915791942415</v>
+        <v>357.520392187814</v>
       </c>
       <c r="Y43" t="n">
-        <v>562.3990000507114</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="44">
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7727,19 @@
         <v>2334.498159098441</v>
       </c>
       <c r="J45" t="n">
-        <v>2375.989236263798</v>
+        <v>2479.815397437606</v>
       </c>
       <c r="K45" t="n">
-        <v>2525.058920465858</v>
+        <v>2628.885081639666</v>
       </c>
       <c r="L45" t="n">
-        <v>3138.955990222747</v>
+        <v>2875.65020954613</v>
       </c>
       <c r="M45" t="n">
-        <v>3446.276123502708</v>
+        <v>3644.018355938592</v>
       </c>
       <c r="N45" t="n">
-        <v>3776.138751166741</v>
+        <v>3973.880983602625</v>
       </c>
       <c r="O45" t="n">
         <v>4253.421048821322</v>
@@ -7780,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1396.500747990132</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1196.580737905684</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>972.79532269519</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>683.6666839087482</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>428.9821957028613</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>428.9821957028613</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>428.9821957028613</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y46" t="n">
-        <v>428.9821957028613</v>
+        <v>395.2468244550147</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165108</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,19 +9005,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>52.49733361305231</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>87.16935584025367</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9176,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>94.13752431970596</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9264,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>5.100663089359699</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>308.1251096272036</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,16 +9725,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>15.83804904622806</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,25 +9953,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>91.23759968302113</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>392.1113620226429</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10121,7 +10123,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10194,13 +10196,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>80.50021372615237</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>199.7396287231151</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10431,19 +10433,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>145.2351313103783</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>306.1147370139961</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10598,7 +10600,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>297.2466435761027</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>199.623080587109</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445217</v>
@@ -10832,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10902,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="O39" t="n">
-        <v>134.4977453535108</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>189.0022427662467</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>19.14409596996995</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,22 +11375,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>104.8749102765738</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>199.7396287231149</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23416,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>94.03149765571965</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>108.3026145601035</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23650,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>87.56751779393707</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23710,13 +23712,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>6.184217651225538</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>15.9042244422881</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23946,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>81.2298699930611</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>2.351981305766685</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,19 +24180,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>191.0200889436239</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>149.6901735748606</v>
       </c>
       <c r="U25" t="n">
-        <v>259.9604039555655</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>5.299650812560913</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>5.52873828902554</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>118.1756261217181</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>189.2470567978679</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>56.43540908542348</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>172.8568984540333</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>92.20253124740655</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.6577969948418</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>170.276829647494</v>
       </c>
       <c r="C40" t="n">
-        <v>69.10321085943104</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25795,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25834,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>137.6927136597771</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>109.4998586500543</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,7 +26031,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>8.57298506170001</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>172.3974568276216</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="F2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="G2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="G2" t="n">
-        <v>664749.4015541045</v>
-      </c>
       <c r="H2" t="n">
-        <v>664749.4015541046</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="I2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541049</v>
       </c>
       <c r="J2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="K2" t="n">
         <v>664749.4015541048</v>
       </c>
-      <c r="K2" t="n">
-        <v>664749.401554105</v>
-      </c>
       <c r="L2" t="n">
-        <v>664749.4015541051</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="M2" t="n">
         <v>664749.4015541049</v>
       </c>
       <c r="N2" t="n">
-        <v>664749.4015541045</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="O2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541046</v>
       </c>
       <c r="P2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541051</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
@@ -26439,7 +26441,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26454,7 +26456,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="P4" t="n">
         <v>15045.66962143909</v>
@@ -26485,7 +26487,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26506,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131716.4111445356</v>
+        <v>-131716.4111445353</v>
       </c>
       <c r="C6" t="n">
-        <v>458251.4680700088</v>
+        <v>458251.468070009</v>
       </c>
       <c r="D6" t="n">
-        <v>458251.4680700089</v>
+        <v>458251.4680700091</v>
       </c>
       <c r="E6" t="n">
-        <v>32556.36950705263</v>
+        <v>32556.36950705275</v>
       </c>
       <c r="F6" t="n">
-        <v>557716.4059839493</v>
+        <v>557716.4059839492</v>
       </c>
       <c r="G6" t="n">
-        <v>557716.4059839488</v>
+        <v>557716.4059839491</v>
       </c>
       <c r="H6" t="n">
-        <v>557716.405983949</v>
+        <v>557716.4059839492</v>
       </c>
       <c r="I6" t="n">
-        <v>557716.4059839493</v>
+        <v>557716.4059839492</v>
       </c>
       <c r="J6" t="n">
-        <v>381293.1867913562</v>
+        <v>381293.1867913561</v>
       </c>
       <c r="K6" t="n">
-        <v>557716.4059839493</v>
+        <v>557716.4059839491</v>
       </c>
       <c r="L6" t="n">
-        <v>557716.4059839494</v>
+        <v>557716.4059839491</v>
       </c>
       <c r="M6" t="n">
         <v>422915.390750112</v>
       </c>
       <c r="N6" t="n">
-        <v>557716.4059839488</v>
+        <v>557716.405983949</v>
       </c>
       <c r="O6" t="n">
-        <v>557716.4059839492</v>
+        <v>557716.405983949</v>
       </c>
       <c r="P6" t="n">
-        <v>557716.4059839491</v>
+        <v>557716.4059839494</v>
       </c>
     </row>
   </sheetData>
@@ -26741,10 +26743,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,7 +26755,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>249.6515995278942</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>23.03118778159273</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>33.71175900607328</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>213.928041722379</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>249.6515995278942</v>
+        <v>253.6181731565467</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27792,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>56.01837628787186</v>
+        <v>227.2204123681532</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>176.1894818449538</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>142.7170302787459</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>174.7440563307572</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>18.68333655655462</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31759,40 +31761,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31837,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31844,19 +31846,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31865,13 +31867,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,10 +34786,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145238</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>378.4011515192544</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507422</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35574,19 +35576,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.40751256795899</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>420.3639292382666</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35744,7 +35746,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35898,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>343.3952292757303</v>
+        <v>429.2814066296115</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35984,7 +35986,7 @@
         <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>155.6761016772989</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>515.2185245587283</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>401.6619767334874</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>222.9314639777528</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>88.01303278507413</v>
@@ -36595,7 +36597,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>340.4953046390455</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>725.3059354206558</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>88.01303278507413</v>
@@ -36841,7 +36843,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
         <v>713.1546070951472</v>
@@ -36914,13 +36916,13 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>390.9245907766187</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
@@ -36929,10 +36931,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>287.7526615081892</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>394.4928362664027</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>616.5391140644624</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>88.01303278507413</v>
@@ -37318,7 +37320,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>546.504348532127</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>406.7164955186337</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37552,7 +37554,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
         <v>713.1546070951472</v>
@@ -37622,7 +37624,7 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,16 +37633,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O39" t="n">
-        <v>416.8614475946189</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37783,7 +37785,7 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221117</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>499.426619816713</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>226.2375109014947</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>146.7850892314805</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>482.1033309642231</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3361722.214636983</v>
+        <v>3354705.199745271</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>105.0314420927888</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>109.4422623037131</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -822,16 +822,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>1.941719304022133</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.656611629715779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>101.0648684641362</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>360.988829461533</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250823</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.7112368822934</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853708</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.1227499549144</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>59.06146187382455</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>27.45797858609671</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>13.78417002079501</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>110.3346969934102</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>185.035228191389</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250822</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229339</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.08792385118008</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>140.1425501084447</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710101</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206836</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>89.6181954234998</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>160.8722505808164</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>219.5254377378116</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>94.51502102198388</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>146.5618470617694</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T25" t="n">
-        <v>71.8573874835286</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896887</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.33759655422691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V34" t="n">
-        <v>79.28074486979467</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>53.21851677552469</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>203.8435192151918</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9.55515053444328</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3799,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701357</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.0847947020405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.18719652447322</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9071733620844</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C2" t="n">
-        <v>584.9446564216728</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W2" t="n">
-        <v>1717.512263598976</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X2" t="n">
-        <v>1344.046505337896</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9071733620844</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230958</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="X4" t="n">
-        <v>409.2948950230958</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5912469122717</v>
+        <v>726.1676515761091</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1370.766673031379</v>
+        <v>1584.314837422904</v>
       </c>
       <c r="C5" t="n">
-        <v>1370.766673031379</v>
+        <v>1215.352320482492</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>1215.352320482492</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>829.5640678842478</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>418.5781630946403</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036439</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036439</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036439</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733122</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224063</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280441</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977172</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642687</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.69155979125</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2344.380435748105</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.505845071313</v>
+        <v>1970.914677487026</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.366513095501</v>
+        <v>1970.914677487026</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036439</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036439</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614626</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571342</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014716</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323013</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036439</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866324</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477907</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658204</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502494</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594893</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064333</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600551</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600551</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600551</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600551</v>
       </c>
       <c r="U7" t="n">
-        <v>639.0540227632637</v>
+        <v>698.7120650600551</v>
       </c>
       <c r="V7" t="n">
-        <v>639.0540227632637</v>
+        <v>698.7120650600551</v>
       </c>
       <c r="W7" t="n">
-        <v>639.0540227632637</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="X7" t="n">
-        <v>411.0644718652463</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1498.51822509718</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>1129.555708156768</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1129.555708156768</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>743.767455558524</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>332.7815507689165</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>318.8581467075074</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036439</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733122</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224067</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642687</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.69155979125</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.14909101822</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990282</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628374</v>
       </c>
       <c r="V8" t="n">
-        <v>1982.819678258477</v>
+        <v>2224.752638628374</v>
       </c>
       <c r="W8" t="n">
-        <v>1982.819678258477</v>
+        <v>1871.98398335826</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.819678258477</v>
+        <v>1498.51822509718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1498.51822509718</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036439</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036439</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614626</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571342</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014716</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247.5125998356232</v>
+        <v>500.1394333084161</v>
       </c>
       <c r="C10" t="n">
-        <v>247.5125998356232</v>
+        <v>500.1394333084161</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>500.1394333084161</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>500.1394333084161</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>353.2494858105057</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036439</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036439</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036439</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866324</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477907</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658204</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502494</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594894</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064334</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064334</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064334</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064334</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064334</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064334</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064334</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064334</v>
       </c>
       <c r="X10" t="n">
-        <v>473.4444960005474</v>
+        <v>500.1394333084161</v>
       </c>
       <c r="Y10" t="n">
-        <v>252.6519168570173</v>
+        <v>500.1394333084161</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5035,25 +5035,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643324</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851619</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590539</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766204</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799365</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1408.392840837196</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1408.392840837196</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1408.392840837196</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>1153.708352631309</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>864.2911825943485</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>636.3016316963311</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5257,49 +5257,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155903</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5357,22 +5357,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M15" t="n">
-        <v>1427.741252113634</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>509.2863307027309</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C16" t="n">
-        <v>509.2863307027309</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
@@ -5445,7 +5445,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>1020.446367141521</v>
+        <v>1336.419047748997</v>
       </c>
       <c r="W16" t="n">
-        <v>731.0291971045608</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="X16" t="n">
-        <v>509.2863307027309</v>
+        <v>819.0123268140194</v>
       </c>
       <c r="Y16" t="n">
-        <v>509.2863307027309</v>
+        <v>598.2197476704893</v>
       </c>
     </row>
     <row r="17">
@@ -5503,22 +5503,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5530,19 +5530,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>1099.417155020476</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M18" t="n">
-        <v>1406.737288300438</v>
+        <v>966.6932390011341</v>
       </c>
       <c r="N18" t="n">
-        <v>1736.599915964471</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>677.7114078547894</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>508.7752249268825</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>508.7752249268825</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>360.8621313444894</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>360.8621313444894</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>192.68680966431</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>192.68680966431</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
@@ -5682,7 +5682,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W19" t="n">
-        <v>898.5039869983195</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X19" t="n">
-        <v>898.5039869983195</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y19" t="n">
-        <v>677.7114078547894</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5749,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O21" t="n">
-        <v>1818.397748747283</v>
+        <v>2302.237516093322</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3923.023794101856</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>3754.087611173949</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>3754.087611173949</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>3754.087611173949</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3607.197663676039</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3607.197663676039</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929845</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>4371.805924143403</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>4371.805924143403</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>4371.805924143403</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>4143.816373245386</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>3923.023794101856</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,7 +6004,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>634.0455001582209</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>880.810628064685</v>
       </c>
       <c r="M24" t="n">
-        <v>932.1883377003199</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.599915964471</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183168</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
-        <v>1115.337937354948</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>826.2092985685065</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>826.2092985685065</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>826.2092985685065</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>598.2197476704891</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>598.2197476704891</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155861</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619124</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.73288364332</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899123</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207826</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.85457301429</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="27">
@@ -6293,16 +6293,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
@@ -6311,16 +6311,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>624.8682044203583</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M27" t="n">
-        <v>932.1883377003199</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>241.9805482336712</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="C28" t="n">
-        <v>241.9805482336712</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>241.9805482336712</v>
+        <v>97.2170914602858</v>
       </c>
       <c r="Y28" t="n">
-        <v>241.9805482336712</v>
+        <v>97.2170914602858</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6472,43 +6472,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.995055864554</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1538.857683528586</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1818.397748747283</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2338.698370483031</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>964.135741824786</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>709.4512536188992</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W31" t="n">
-        <v>420.0340835819385</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X31" t="n">
-        <v>420.0340835819385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>390.400147668578</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6709,19 +6709,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6767,13 +6767,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6782,19 +6782,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L33" t="n">
-        <v>796.3635653766202</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M33" t="n">
-        <v>1406.737288300438</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1736.599915964471</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028584</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>898.7925182488384</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>818.7109577742983</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>818.7109577742983</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6925,49 +6925,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515095</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L36" t="n">
-        <v>953.6472828615138</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M36" t="n">
-        <v>1722.015429253975</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P36" t="n">
         <v>2536.440602918915</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.3570368996734</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C37" t="n">
-        <v>410.4208539717665</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D37" t="n">
-        <v>410.4208539717665</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E37" t="n">
-        <v>262.5077603893734</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.787631771461</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.787631771461</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X37" t="n">
-        <v>981.7980808734433</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y37" t="n">
-        <v>761.0055017299131</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,25 +7256,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M39" t="n">
-        <v>841.863114014129</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>671.7300455988212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1164.055751909234</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>909.3712637033469</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>909.3712637033469</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>681.3817128053296</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>681.3817128053296</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,55 +7396,55 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
         <v>3931.29497012173</v>
@@ -7456,7 +7456,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7496,22 +7496,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1396.107276203138</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.969903867171</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.3337308726216</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>874.927113122792</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>874.927113122792</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>585.5099430858313</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>357.520392187814</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.3337308726216</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7648,46 +7648,46 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590537</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>2479.815397437606</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>2628.885081639666</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>2875.65020954613</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>3644.018355938592</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N45" t="n">
-        <v>3973.880983602625</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O45" t="n">
-        <v>4253.421048821322</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P45" t="n">
-        <v>4773.721670557069</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>441.900558318119</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,10 +8066,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270206</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360612</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270205</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>350.4438349360612</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978191</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>96.0374492781462</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445216</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>87.16935584025367</v>
+        <v>234.4116509503159</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>234.4116509503159</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,25 +9485,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>308.1251096272036</v>
+        <v>29.47535963978166</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>223.6742649934472</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711655</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928282</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9959,25 +9959,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>91.23759968302113</v>
+        <v>29.47535963978203</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,10 +10120,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>199.7396287231151</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10430,28 +10430,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M33" t="n">
-        <v>306.1147370139961</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.51353349283</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>297.2466435761027</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>29.47535963978211</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,25 +10907,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11144,25 +11144,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>189.0022427662467</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>104.8749102765738</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11384,16 +11384,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>108.3026145601035</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>91.2653927430116</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>6.184217651225538</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>15.9042244422881</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>2.351981305766685</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,19 +24177,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T25" t="n">
-        <v>149.6901735748606</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>5.299650812560913</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y31" t="n">
-        <v>189.2470567978679</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V34" t="n">
-        <v>172.8568984540333</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>92.20253124740655</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>14.74113413690301</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.276829647494</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.8060970315905</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.4998586500543</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>172.3974568276216</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587392</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>718110.1834587394</v>
+        <v>718110.1834587393</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.504384641</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846413</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846411</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846412</v>
-      </c>
       <c r="E2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.401554105</v>
       </c>
       <c r="G2" t="n">
         <v>664749.4015541048</v>
@@ -26334,28 +26334,28 @@
         <v>664749.4015541049</v>
       </c>
       <c r="I2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541044</v>
       </c>
       <c r="J2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541048</v>
       </c>
       <c r="K2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="L2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="M2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="N2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="O2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="P2" t="n">
         <v>664749.4015541048</v>
-      </c>
-      <c r="L2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="M2" t="n">
-        <v>664749.4015541049</v>
-      </c>
-      <c r="N2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="O2" t="n">
-        <v>664749.4015541046</v>
-      </c>
-      <c r="P2" t="n">
-        <v>664749.4015541051</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768971</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7.723256517081232e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338374</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512228</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512228</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143897</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26441,25 +26441,25 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
+        <v>15045.6696214392</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15045.66962143909</v>
+      </c>
+      <c r="O4" t="n">
         <v>15045.6696214391</v>
       </c>
-      <c r="K4" t="n">
+      <c r="P4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="L4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15045.66962143906</v>
-      </c>
-      <c r="P4" t="n">
-        <v>15045.66962143909</v>
       </c>
     </row>
     <row r="5">
@@ -26472,28 +26472,28 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340941</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871659</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,13 +26502,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131716.4111445353</v>
+        <v>-131716.4111445356</v>
       </c>
       <c r="C6" t="n">
-        <v>458251.468070009</v>
+        <v>458251.4680700096</v>
       </c>
       <c r="D6" t="n">
         <v>458251.4680700091</v>
       </c>
       <c r="E6" t="n">
-        <v>32556.36950705275</v>
+        <v>31581.77824733041</v>
       </c>
       <c r="F6" t="n">
-        <v>557716.4059839492</v>
+        <v>556741.8147242275</v>
       </c>
       <c r="G6" t="n">
-        <v>557716.4059839491</v>
+        <v>556741.8147242274</v>
       </c>
       <c r="H6" t="n">
-        <v>557716.4059839492</v>
+        <v>556741.8147242275</v>
       </c>
       <c r="I6" t="n">
-        <v>557716.4059839492</v>
+        <v>556741.8147242271</v>
       </c>
       <c r="J6" t="n">
-        <v>381293.1867913561</v>
+        <v>380318.5955316345</v>
       </c>
       <c r="K6" t="n">
-        <v>557716.4059839491</v>
+        <v>556741.8147242272</v>
       </c>
       <c r="L6" t="n">
-        <v>557716.4059839491</v>
+        <v>556741.8147242273</v>
       </c>
       <c r="M6" t="n">
-        <v>422915.390750112</v>
+        <v>421940.7994903899</v>
       </c>
       <c r="N6" t="n">
-        <v>557716.405983949</v>
+        <v>556741.8147242276</v>
       </c>
       <c r="O6" t="n">
-        <v>557716.405983949</v>
+        <v>556741.8147242272</v>
       </c>
       <c r="P6" t="n">
-        <v>557716.4059839494</v>
+        <v>556741.8147242274</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.654070646351542e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,40 +26740,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217086</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170861</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545549</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545549</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253572</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990186</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545548</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990184</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990186</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>249.6515995278942</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>64.97345050525843</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27542,16 +27542,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>27.18103065089216</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.928041722379</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>253.6181731565467</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>52.79534055926194</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>323.9227727643572</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481187</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089716</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>227.2204123681532</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>259.0650197504943</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>213.5880757709469</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481185</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>174.4157128089716</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>142.7170302787459</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.7440563307572</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>27.1672521506062</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853707</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491439</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28092,10 +28092,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-2.508117851338566e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-9.65407064635154e-14</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.701199264265597e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340043</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140997</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554457</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081574</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630665</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405363</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338299</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119861</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954663</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044134</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633782</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727376</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473542</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472034</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141095</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188902</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890685</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396463</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.20177816491</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478004</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983119</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736697</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923044</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479575</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034973</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.0919284713147</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.27496629637266</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619144</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.68117709940786</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644432</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492001</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281357</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302225</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246922</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917248</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666592</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175828</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383786</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329677999</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701158</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695334</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197219</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315604</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340043</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140997</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554458</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081574</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630666</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405363</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.96179443383</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119862</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954663</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044135</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633783</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727377</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473543</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472034</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141097</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188902</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890685</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396465</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.20177816491</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478004</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983119</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736697</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923044</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479575</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034974</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.0919284713147</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.27496629637266</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619144</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078601</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644433</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492002</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281357</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302227</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246922</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917248</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666592</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175829</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383788</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701159</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695334</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.91048397019722</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315605</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,7 +33414,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,31 +33423,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,7 +33587,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,7 +33651,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,31 +33660,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,7 +33824,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,10 +34786,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343416</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435297</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.814464806096</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530447</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031296</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713854</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262934</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.31973343389</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735644</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137339</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.8709020871394</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850083</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458878</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873135</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435298</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492232</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530448</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898687</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031296</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713854</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262934</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.31973343389</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>401.1632560839212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735644</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137339</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713941</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458878</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873137</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>278.7330645958063</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>378.4011515192544</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>420.3639292382666</v>
+        <v>567.6062243483289</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>567.6062243483289</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>515.2185245587283</v>
+        <v>236.5687745713064</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>374.2497035813865</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>401.6619767334874</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303338</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221075</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>340.4953046390455</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N29" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382553</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,10 +36928,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>287.7526615081892</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M33" t="n">
-        <v>616.5391140644624</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221093</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L36" t="n">
-        <v>546.504348532127</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
         <v>776.1294408004662</v>
@@ -37399,13 +37399,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>236.5687745713069</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>682.9598737318697</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37864,25 +37864,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>499.426619816713</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>146.7850892314805</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>88.01303278507413</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_2_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3354705.199745271</v>
+        <v>3359644.462594303</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>300.2994412657488</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>109.4422623037131</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.941719304022133</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.941719304021908</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>360.988829461533</v>
+        <v>360.9888294615358</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250823</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.7112368822934</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853708</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549144</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>27.45797858609671</v>
+        <v>101.780687729549</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.78417002079501</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>110.3346969934102</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>164.8789012911983</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250822</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229339</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>140.1425501084447</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>28.44734925172043</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710101</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1429,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.153727875004</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>188.4590648403943</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>160.8722505808164</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,10 +1897,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065123</v>
+        <v>186.5956203695763</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>235.2707607354173</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896887</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056519</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.8435192151918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,10 +3520,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002183</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.287249111317</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>259.3061888821581</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>81.90355835744664</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>128.2693160379187</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>443.7744035713887</v>
+        <v>378.1446555862789</v>
       </c>
       <c r="C2" t="n">
         <v>74.81188663097703</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2531.572661847995</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2531.572661847995</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2277.810876486087</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1946.747989142516</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1593.979333872402</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1220.513575611322</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>830.3742436355105</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4473,19 +4473,19 @@
         <v>394.4025473335336</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511404</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,22 +4494,22 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>726.1676515761091</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
         <v>726.1676515761091</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1584.314837422904</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C5" t="n">
-        <v>1215.352320482492</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D5" t="n">
-        <v>1215.352320482492</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="E5" t="n">
-        <v>829.5640678842478</v>
+        <v>829.5640678842506</v>
       </c>
       <c r="F5" t="n">
-        <v>418.5781630946403</v>
+        <v>418.578163094643</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733122</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224063</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280441</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977172</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642687</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.69155979125</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.14909101822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.14909101822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.14909101822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.14909101822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.14909101822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.14909101822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748105</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487026</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y5" t="n">
-        <v>1970.914677487026</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036439</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614626</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571342</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014716</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5356891811371</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323013</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323013</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323013</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323013</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323013</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323013</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323013</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866324</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477907</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658204</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502494</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594893</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600551</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600551</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600551</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600551</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600551</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600551</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>670.9767331549069</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X7" t="n">
-        <v>670.9767331549069</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.1841540113768</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1498.51822509718</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>1129.555708156768</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>1129.555708156768</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>743.767455558524</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>332.7815507689165</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>318.8581467075074</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733122</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224067</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642687</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.69155979125</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.14909101822</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.14909101822</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.14909101822</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990282</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628374</v>
+        <v>2475.576056810131</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628374</v>
+        <v>2475.576056810131</v>
       </c>
       <c r="W8" t="n">
-        <v>1871.98398335826</v>
+        <v>2122.807401540017</v>
       </c>
       <c r="X8" t="n">
-        <v>1498.51822509718</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y8" t="n">
-        <v>1498.51822509718</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614626</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571342</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014716</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>500.1394333084161</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C10" t="n">
-        <v>500.1394333084161</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D10" t="n">
-        <v>500.1394333084161</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>500.1394333084161</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>353.2494858105057</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866324</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477907</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658204</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502494</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594894</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064334</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064334</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064334</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064334</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064334</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064334</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064334</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064334</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084161</v>
+        <v>699.3942879925752</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.1394333084161</v>
+        <v>699.3942879925752</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,55 +5038,55 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,13 +5117,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>167.8887746690278</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277034</v>
+        <v>316.9584588710876</v>
       </c>
       <c r="L12" t="n">
         <v>563.7235867775516</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028589</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155903</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211724</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M15" t="n">
-        <v>966.6932390011341</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.5712828402495</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C16" t="n">
-        <v>247.6350999123426</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V16" t="n">
-        <v>1336.419047748997</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W16" t="n">
-        <v>1047.001877712037</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X16" t="n">
-        <v>819.0123268140194</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y16" t="n">
-        <v>598.2197476704893</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5512,7 +5512,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
@@ -5530,37 +5530,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211724</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011341</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,34 +5737,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2302.237516093322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>999.4407324195463</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>634.0455001582209</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>880.810628064685</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.3213845506</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610188</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003438</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405194</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155861</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619124</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.73288364332</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899123</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207826</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.85457301429</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231261</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141865</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465298</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121728</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851613</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590533</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614722</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,43 +6448,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,28 +6639,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706323</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336716</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
         <v>97.21709146028584</v>
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6721,7 +6721,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,19 +6876,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011506</v>
@@ -6925,49 +6925,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7128,19 +7128,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>820.5263570570736</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>531.109187020113</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>303.1196361220957</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,67 +7153,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7241,40 +7241,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C43" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D43" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X43" t="n">
-        <v>359.1696912903951</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y43" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.9573788353326</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.9573788353326</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.9573788353326</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.9573788353326</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270206</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360612</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270205</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360612</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.47535963978211</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978191</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>234.4116509503159</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298197</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>234.4116509503159</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>29.47535963978166</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>223.6742649934472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928282</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>29.47535963978203</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>234.411650950316</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978197</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.51353349283</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>29.47535963978211</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978197</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338525</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23670,7 +23670,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,13 +23706,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>33.08849621799493</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>91.2653927430116</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24132,16 +24132,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518769</v>
+        <v>34.95194068881293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>50.96659166316002</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338523</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>14.74113413690301</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.393833183385</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>26.93116351641925</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>143.8060970315905</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>18.16464660865046</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>718110.1834587392</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
     <row r="7">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>718110.1834587393</v>
+        <v>718110.1834587394</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846413</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846413</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.401554105</v>
       </c>
       <c r="F2" t="n">
-        <v>664749.401554105</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="G2" t="n">
-        <v>664749.4015541048</v>
+        <v>664749.4015541044</v>
       </c>
       <c r="H2" t="n">
-        <v>664749.4015541049</v>
+        <v>664749.4015541045</v>
       </c>
       <c r="I2" t="n">
         <v>664749.4015541044</v>
       </c>
       <c r="J2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="K2" t="n">
         <v>664749.4015541048</v>
-      </c>
-      <c r="K2" t="n">
-        <v>664749.4015541045</v>
       </c>
       <c r="L2" t="n">
         <v>664749.4015541046</v>
       </c>
       <c r="M2" t="n">
+        <v>664749.4015541045</v>
+      </c>
+      <c r="N2" t="n">
         <v>664749.4015541046</v>
       </c>
-      <c r="N2" t="n">
-        <v>664749.401554105</v>
-      </c>
       <c r="O2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="P2" t="n">
         <v>664749.4015541045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>664749.4015541048</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768971</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>7.723256517081232e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,19 +26420,19 @@
         <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512228</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512228</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143897</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26441,19 +26441,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.6696214392</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26472,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340941</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-131716.4111445356</v>
+        <v>-131716.4111445352</v>
       </c>
       <c r="C6" t="n">
-        <v>458251.4680700096</v>
+        <v>458251.4680700091</v>
       </c>
       <c r="D6" t="n">
         <v>458251.4680700091</v>
       </c>
       <c r="E6" t="n">
-        <v>31581.77824733041</v>
+        <v>32458.91038108095</v>
       </c>
       <c r="F6" t="n">
-        <v>556741.8147242275</v>
+        <v>557618.9468579767</v>
       </c>
       <c r="G6" t="n">
-        <v>556741.8147242274</v>
+        <v>557618.9468579766</v>
       </c>
       <c r="H6" t="n">
-        <v>556741.8147242275</v>
+        <v>557618.9468579767</v>
       </c>
       <c r="I6" t="n">
-        <v>556741.8147242271</v>
+        <v>557618.9468579766</v>
       </c>
       <c r="J6" t="n">
-        <v>380318.5955316345</v>
+        <v>381195.7276653838</v>
       </c>
       <c r="K6" t="n">
-        <v>556741.8147242272</v>
+        <v>557618.946857977</v>
       </c>
       <c r="L6" t="n">
-        <v>556741.8147242273</v>
+        <v>557618.9468579768</v>
       </c>
       <c r="M6" t="n">
-        <v>421940.7994903899</v>
+        <v>422817.9316241395</v>
       </c>
       <c r="N6" t="n">
-        <v>556741.8147242276</v>
+        <v>557618.9468579768</v>
       </c>
       <c r="O6" t="n">
-        <v>556741.8147242272</v>
+        <v>557618.9468579768</v>
       </c>
       <c r="P6" t="n">
-        <v>556741.8147242274</v>
+        <v>557618.9468579767</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.654070646351542e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.743664217086</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170861</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545549</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545549</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253572</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370144</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990186</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545548</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990184</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990186</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>64.97345050525871</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>64.97345050525843</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.18103065089216</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>144.7234726761359</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>52.79534055926194</v>
+        <v>52.79534055925922</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643572</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481187</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089716</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>259.0650197504943</v>
+        <v>184.742310607042</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>213.5880757709469</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481185</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089716</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>86.34526621709097</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>27.1672521506062</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853707</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491439</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>197.2623061373167</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28092,10 +28092,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.508117851338566e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.701199264265597e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340043</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140997</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554457</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081574</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630665</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405363</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338299</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119861</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954663</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044134</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633782</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727376</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473542</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472034</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141095</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188902</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890685</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396463</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.20177816491</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478004</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983119</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736697</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923044</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479575</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034973</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.0919284713147</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.27496629637266</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619144</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.68117709940786</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644432</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492001</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281357</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302225</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246922</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917248</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666592</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175828</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383786</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329677999</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701158</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695334</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197219</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315604</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340043</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140997</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554458</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081574</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630666</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405363</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.96179443383</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119862</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954663</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044135</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633783</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727377</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473543</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472034</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141097</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188902</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890685</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396465</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.20177816491</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478004</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983119</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736697</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923044</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479575</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034974</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.0919284713147</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.27496629637266</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619144</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078601</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644433</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492002</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281357</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302227</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246922</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917248</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666592</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175829</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383788</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701159</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695334</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.91048397019722</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315605</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,7 +31992,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,31 +32001,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,7 +32165,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343416</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435297</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.814464806096</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530447</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031296</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713854</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262934</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.31973343389</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839212</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735644</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137339</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871394</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850083</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458878</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873135</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343417</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435298</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530448</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898687</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031296</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713854</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262934</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.31973343389</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839212</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735644</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137339</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713941</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458878</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873137</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>71.3855385946888</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958063</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>776.1294408004662</v>
@@ -35503,13 +35503,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>567.6062243483289</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,22 +35889,22 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
         <v>59.82538970349766</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>567.6062243483289</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>236.5687745713064</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>374.2497035813865</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221075</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>384.9870895382553</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221093</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>236.5687745713069</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
